--- a/tests/data/sensitivities/config/design_input_mc_with_correls.xlsx
+++ b/tests/data/sensitivities/config/design_input_mc_with_correls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>designtype</t>
   </si>
@@ -204,10 +204,13 @@
     <t>repeats</t>
   </si>
   <si>
-    <t>seeds</t>
+    <t>rms_seeds</t>
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>distribution_seed</t>
   </si>
   <si>
     <t>sensname</t>
@@ -857,15 +860,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7040816326531"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.8877551020408"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.66836734693878"/>
@@ -887,12 +890,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +925,7 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -940,76 +951,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>500</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>0.025</v>
@@ -1025,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -1035,14 +1046,14 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="9" t="n">
         <v>0</v>
@@ -1060,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -1070,14 +1081,14 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="9" t="n">
         <v>1</v>
@@ -1091,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -1101,14 +1112,14 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>2500</v>
@@ -1122,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -1132,14 +1143,14 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="9" t="n">
         <v>2430</v>
@@ -1155,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -1165,14 +1176,14 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="9" t="n">
         <v>2400</v>
@@ -1188,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -1198,20 +1209,20 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -1219,7 +1230,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,14 +1238,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>0.75</v>
@@ -1258,14 +1269,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="9" t="n">
         <v>0.5</v>
@@ -1289,14 +1300,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>0.001</v>
@@ -1346,18 +1357,18 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>1</v>
@@ -1367,7 +1378,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>0</v>
@@ -1379,7 +1390,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>0.2</v>
@@ -1425,18 +1436,18 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>1</v>
@@ -1446,7 +1457,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>0.5</v>
@@ -1458,7 +1469,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>-0.7</v>
@@ -1501,46 +1512,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -1576,15 +1587,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="15" t="n">
         <v>1000</v>
@@ -1592,23 +1603,23 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>0</v>
@@ -1616,7 +1627,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>0.035</v>
@@ -1624,7 +1635,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>0.05</v>
@@ -1632,7 +1643,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="15" t="n">
         <v>0.02</v>
@@ -1640,7 +1651,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="19" t="n">
         <v>0.338</v>
@@ -1648,7 +1659,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="n">
         <v>8000</v>
@@ -1657,7 +1668,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="15" t="n">
         <v>0.14</v>
@@ -1667,7 +1678,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>0.016</v>
@@ -1677,7 +1688,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="15" t="n">
         <v>0.001</v>
@@ -1687,7 +1698,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>0.1</v>
@@ -1697,7 +1708,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15" t="n">
         <v>0.07</v>
@@ -1707,7 +1718,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>500</v>
@@ -1717,7 +1728,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="19" t="n">
         <v>500</v>
@@ -1725,7 +1736,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="19" t="n">
         <v>10</v>
@@ -1733,7 +1744,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="19" t="n">
         <v>0.25</v>
@@ -1741,7 +1752,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="19" t="n">
         <v>0.45</v>
@@ -1749,7 +1760,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>0.8</v>
@@ -1757,7 +1768,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>0.98</v>
@@ -1765,7 +1776,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="19" t="n">
         <v>0.8</v>
@@ -1773,7 +1784,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="19" t="n">
         <v>0.6</v>
@@ -1781,7 +1792,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="19" t="n">
         <v>0.45</v>
@@ -1789,7 +1800,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="19" t="n">
         <v>12</v>
@@ -1797,7 +1808,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>1755.5</v>
@@ -1805,7 +1816,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="21" t="n">
         <v>1758</v>
@@ -1813,7 +1824,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>1758</v>
@@ -1821,7 +1832,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>1758</v>
@@ -1829,7 +1840,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>1759.5</v>
@@ -1837,7 +1848,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>1759.5</v>
@@ -1845,7 +1856,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="22" t="n">
         <v>1759.5</v>
@@ -1853,7 +1864,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="22" t="n">
         <v>1755.5</v>
@@ -1861,7 +1872,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>1755.5</v>
@@ -1869,7 +1880,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1759.5</v>
@@ -1877,7 +1888,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="19" t="n">
         <v>1.16</v>
@@ -1885,7 +1896,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="19" t="n">
         <v>1.099</v>
@@ -1893,7 +1904,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="19" t="n">
         <v>1.099</v>
@@ -1901,7 +1912,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="19" t="n">
         <v>1.099</v>
@@ -1909,7 +1920,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="19" t="n">
         <v>1.085</v>
@@ -1917,7 +1928,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="19" t="n">
         <v>1.085</v>
@@ -1925,7 +1936,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="19" t="n">
         <v>1.085</v>
@@ -1933,7 +1944,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="19" t="n">
         <v>1.085</v>
@@ -1941,7 +1952,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="19" t="n">
         <v>1.16</v>
@@ -1949,7 +1960,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="19" t="n">
         <v>1.069</v>
@@ -1957,7 +1968,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="19" t="n">
         <v>50.6</v>
@@ -1965,7 +1976,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="19" t="n">
         <v>26.5</v>
@@ -1973,7 +1984,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="19" t="n">
         <v>26.5</v>
@@ -1981,7 +1992,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="19" t="n">
         <v>26.5</v>
@@ -1989,7 +2000,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="19" t="n">
         <v>20.5</v>
@@ -1997,7 +2008,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="19" t="n">
         <v>20.5</v>
@@ -2005,7 +2016,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="19" t="n">
         <v>20.5</v>
@@ -2013,7 +2024,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="19" t="n">
         <v>20.5</v>
@@ -2021,7 +2032,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" s="19" t="n">
         <v>50.6</v>
@@ -2029,7 +2040,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="19" t="n">
         <v>14.7</v>
@@ -2037,15 +2048,15 @@
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" s="15" t="n">
         <v>0.01</v>
@@ -2080,47 +2091,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/sensitivities/config/design_input_mc_with_correls.xlsx
+++ b/tests/data/sensitivities/config/design_input_mc_with_correls.xlsx
@@ -1,92 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://statoilsrm-my.sharepoint.com/personal/tral_equinor_com/Documents/FMU_stdmat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AC414D-7111-4FD5-9841-A07DB1ED395D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="23580" windowHeight="13605" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="general_input" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="designinput" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="corr1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="corr2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="depend1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="defaultvalues" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="INFO" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="general_input" sheetId="1" r:id="rId1"/>
+    <sheet name="designinput" sheetId="2" r:id="rId2"/>
+    <sheet name="corr1" sheetId="3" r:id="rId3"/>
+    <sheet name="corr2" sheetId="4" r:id="rId4"/>
+    <sheet name="depend1" sheetId="5" r:id="rId5"/>
+    <sheet name="defaultvalues" sheetId="6" r:id="rId6"/>
+    <sheet name="INFO" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="RiskAfterRecalcMacro" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="RiskAfterSimMacro" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="RiskBeforeRecalcMacro" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="RiskBeforeSimMacro" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="RiskCollectDistributionSamples" vbProcedure="false">2</definedName>
-    <definedName function="false" hidden="false" name="RiskFixedSeed" vbProcedure="false">9</definedName>
-    <definedName function="false" hidden="false" name="RiskHasSettings" vbProcedure="false">7</definedName>
-    <definedName function="false" hidden="false" name="RiskMinimizeOnStart" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskMonitorConvergence" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskMultipleCPUSupportEnabled" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskNumIterations" vbProcedure="false">5000</definedName>
-    <definedName function="false" hidden="false" name="RiskNumSimulations" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="RiskPauseOnError" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskRunAfterRecalcMacro" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskRunAfterSimMacro" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskRunBeforeRecalcMacro" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskRunBeforeSimMacro" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskSamplingType" vbProcedure="false">3</definedName>
-    <definedName function="false" hidden="false" name="RiskStandardRecalc" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="RiskUpdateDisplay" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskUseDifferentSeedForEachSim" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="RiskUseFixedSeed" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="RiskUseMultipleCPUs" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_AutomaticallyGenerateReports" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" vbProcedure="false">2</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" vbProcedure="false">0.95</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePercentileToTest" vbProcedure="false">0.9</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePerformMeanTest" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceTestingPeriod" vbProcedure="false">100</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ConvergenceTolerance" vbProcedure="false">0.03</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_GoalSeekTargetValue" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_LiveUpdate" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_LiveUpdatePeriod" vbProcedure="false">-1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MacroMode" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MacroRecalculationBehavior" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MultipleCPUManualCount" vbProcedure="false">4</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_MultipleCPUMode" vbProcedure="false">2</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_RandomNumberGenerator" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionCustomItemsCount" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionDataMode" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportMultiSimType" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportPlacement" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportSelection" vbProcedure="false">513</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportsFileType" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionReportStyle" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportOptionSelectiveQR" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ReportsList" vbProcedure="false">513</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_ShowSimulationProgressWindow" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_SimNameCount" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StatisticFunctionUpdating" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcActiveSimulationNumber" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcBehavior" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" vbProcedure="false">0.5</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports">0</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_GoalSeekTargetValue">0</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate">1</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_MacroMode">0</definedName>
+    <definedName name="_AtRisk_SimSetting_MacroRecalculationBehavior">0</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUManualCount">4</definedName>
+    <definedName name="_AtRisk_SimSetting_MultipleCPUMode">2</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionCustomItemsCount">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionDataMode">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionReportMultiSimType">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionReportPlacement">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionReportSelection">513</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionReportsFileType">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionReportStyle">1</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportOptionSelectiveQR">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList">513</definedName>
+    <definedName name="_AtRisk_SimSetting_ShowSimulationProgressWindow">1</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StatisticFunctionUpdating">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcActiveSimulationNumber">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile">0.5</definedName>
+    <definedName name="RiskAfterRecalcMacro">""</definedName>
+    <definedName name="RiskAfterSimMacro">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro">""</definedName>
+    <definedName name="RiskBeforeSimMacro">""</definedName>
+    <definedName name="RiskCollectDistributionSamples">2</definedName>
+    <definedName name="RiskFixedSeed">9</definedName>
+    <definedName name="RiskHasSettings">7</definedName>
+    <definedName name="RiskMinimizeOnStart">0</definedName>
+    <definedName name="RiskMonitorConvergence">0</definedName>
+    <definedName name="RiskMultipleCPUSupportEnabled">0</definedName>
+    <definedName name="RiskNumIterations">5000</definedName>
+    <definedName name="RiskNumSimulations">1</definedName>
+    <definedName name="RiskPauseOnError">0</definedName>
+    <definedName name="RiskRunAfterRecalcMacro">0</definedName>
+    <definedName name="RiskRunAfterSimMacro">0</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro">0</definedName>
+    <definedName name="RiskRunBeforeSimMacro">0</definedName>
+    <definedName name="RiskSamplingType">3</definedName>
+    <definedName name="RiskStandardRecalc">1</definedName>
+    <definedName name="RiskUpdateDisplay">0</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim">0</definedName>
+    <definedName name="RiskUseFixedSeed">1</definedName>
+    <definedName name="RiskUseMultipleCPUs">0</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -122,12 +127,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>designtype</t>
   </si>
@@ -381,130 +386,7 @@
     <t>INJ_UNC</t>
   </si>
   <si>
-    <t>PORO_MEAN</t>
-  </si>
-  <si>
-    <t>PERM_MEAN</t>
-  </si>
-  <si>
-    <t>PERM_STD</t>
-  </si>
-  <si>
-    <t>PORO_STD</t>
-  </si>
-  <si>
-    <t>VARIO_MAIN</t>
-  </si>
-  <si>
-    <t>VARIO_PERP</t>
-  </si>
-  <si>
-    <t>VARIO_VERT</t>
-  </si>
-  <si>
     <t>NTG6</t>
-  </si>
-  <si>
-    <t>NTG_HEIMDAL</t>
-  </si>
-  <si>
-    <t>NTG_HEIMDAL_WINGS</t>
-  </si>
-  <si>
-    <t>NTG_HEIMDAL_NETWORK</t>
-  </si>
-  <si>
-    <t>NTG_MAPPED_INJECTITES_THIN</t>
-  </si>
-  <si>
-    <t>INJECTITE_SENS</t>
-  </si>
-  <si>
-    <t>FWL_FA</t>
-  </si>
-  <si>
-    <t>FWL_FA_D</t>
-  </si>
-  <si>
-    <t>FWL_D</t>
-  </si>
-  <si>
-    <t>FWL_D_FN</t>
-  </si>
-  <si>
-    <t>FWL_FN</t>
-  </si>
-  <si>
-    <t>FWL_FS</t>
-  </si>
-  <si>
-    <t>FWL_FW</t>
-  </si>
-  <si>
-    <t>FWL_FW_H</t>
-  </si>
-  <si>
-    <t>FWL_FA_FN</t>
-  </si>
-  <si>
-    <t>FWL_H</t>
-  </si>
-  <si>
-    <t>BO_FA</t>
-  </si>
-  <si>
-    <t>BO_FA_D</t>
-  </si>
-  <si>
-    <t>BO_D</t>
-  </si>
-  <si>
-    <t>BO_D_FN</t>
-  </si>
-  <si>
-    <t>BO_FN</t>
-  </si>
-  <si>
-    <t>BO_FS</t>
-  </si>
-  <si>
-    <t>BO_FW_H</t>
-  </si>
-  <si>
-    <t>BO_FA_FN</t>
-  </si>
-  <si>
-    <t>BO_H</t>
-  </si>
-  <si>
-    <t>GOR_FA</t>
-  </si>
-  <si>
-    <t>GOR_FA_D</t>
-  </si>
-  <si>
-    <t>GOR_D</t>
-  </si>
-  <si>
-    <t>GOR_D_FN</t>
-  </si>
-  <si>
-    <t>GOR_FN</t>
-  </si>
-  <si>
-    <t>GOR_FS</t>
-  </si>
-  <si>
-    <t>GOR_FW</t>
-  </si>
-  <si>
-    <t>GOR_FW_H</t>
-  </si>
-  <si>
-    <t>GOR_FA_FN</t>
-  </si>
-  <si>
-    <t>GOR_H</t>
   </si>
   <si>
     <t>This file is an example for configuration of design matrix for one-by-one sensititivities</t>
@@ -543,14 +425,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -559,22 +440,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -589,7 +455,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
@@ -604,9 +470,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -633,165 +506,120 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -850,31 +678,643 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C0B2AB-F637-4566-BBD3-4F400B374602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A730A78-AA02-43A1-A9EA-E19E437E650E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA0ABB3-49C0-4554-8E04-603304EB40C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C537B5-C32E-4853-8020-D729373854C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553D6E63-3EC1-46D6-A522-D2DE6388B9A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B093D77-FCD8-413E-893F-75FF05B822A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.66836734693878"/>
+    <col min="1" max="1" width="14.7109375"/>
+    <col min="2" max="2" width="10"/>
+    <col min="3" max="3" width="77.85546875"/>
+    <col min="4" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,15 +1322,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -898,58 +1338,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>555</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="8.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="5.36224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="11.969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.53061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.92857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.53061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="6.92857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="9.88265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="2" width="11.2755102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="8.83673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="10.0510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="10.234693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="10.7109375" style="3"/>
+    <col min="2" max="2" width="8.28515625" style="4"/>
+    <col min="3" max="3" width="5.42578125" style="4"/>
+    <col min="4" max="4" width="12" style="4"/>
+    <col min="5" max="5" width="9.5703125" style="2"/>
+    <col min="6" max="6" width="6.85546875" style="2"/>
+    <col min="7" max="7" width="9.5703125" style="2"/>
+    <col min="8" max="8" width="6.85546875" style="2"/>
+    <col min="9" max="9" width="9.85546875" style="4"/>
+    <col min="10" max="10" width="31.42578125" style="2"/>
+    <col min="11" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="10" style="4"/>
+    <col min="16" max="16" width="10.28515625" style="4"/>
+    <col min="17" max="17" width="12.7109375"/>
+    <col min="18" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -998,15 +1435,15 @@
       <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>500</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1022,17 +1459,17 @@
       <c r="I2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="9" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="K2" s="9" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="L2" s="9" t="n">
-        <v>0.045</v>
+      <c r="J2" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L2" s="9">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M2" s="9"/>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="8">
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
@@ -1041,7 +1478,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1055,19 +1492,19 @@
       <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="n">
+      <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="9">
         <v>-1</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="9">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="8">
         <v>2</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -1076,7 +1513,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1090,15 +1527,15 @@
       <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="9">
         <v>10</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="8">
         <v>3</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -1107,7 +1544,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1121,15 +1558,15 @@
       <c r="I5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="9">
         <v>2500</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="9">
         <v>2550</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="8">
         <v>1</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -1138,7 +1575,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1152,17 +1589,17 @@
       <c r="I6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="9">
         <v>2430</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="9">
         <v>2470</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>2500</v>
       </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="8">
         <v>1</v>
       </c>
       <c r="O6" s="8" t="s">
@@ -1171,7 +1608,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1185,17 +1622,17 @@
       <c r="I7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="9">
         <v>2400</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="9">
         <v>2450</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>2500</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="8">
         <v>1</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -1204,7 +1641,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1233,7 +1670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1247,24 +1684,24 @@
       <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>0.75</v>
       </c>
-      <c r="K9" s="9" t="n">
+      <c r="K9" s="9">
         <v>0.8</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="9">
         <v>1</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="8">
         <v>2</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1278,24 +1715,24 @@
       <c r="I10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="9">
         <v>0.5</v>
       </c>
-      <c r="K10" s="9" t="n">
+      <c r="K10" s="9">
         <v>0.6</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="9">
         <v>0.65</v>
       </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="8">
         <v>2</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1309,15 +1746,15 @@
       <c r="I11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K11" s="9" t="n">
+      <c r="J11" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="8">
         <v>3</v>
       </c>
       <c r="O11" s="8"/>
@@ -1325,37 +1762,34 @@
       <c r="Q11" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="14.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="4" width="8.55102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="14.85546875" style="4"/>
+    <col min="2" max="4" width="8.5703125" style="4"/>
+    <col min="5" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
       <c r="B1" s="12" t="s">
         <v>25</v>
       </c>
@@ -1366,75 +1800,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="13">
         <v>0.2</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="14.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="18.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="13.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="12.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="14.85546875" style="4"/>
+    <col min="2" max="2" width="18.140625" style="4"/>
+    <col min="3" max="3" width="13.85546875" style="4"/>
+    <col min="4" max="4" width="12.42578125" style="4"/>
+    <col min="5" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
       <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
@@ -1445,121 +1871,112 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="13">
         <v>0.5</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="13">
         <v>-0.7</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="13">
         <v>-0.7</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="3" width="16"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1567,25 +1984,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="28.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="12.1020408163265"/>
-    <col collapsed="false" hidden="false" max="999" min="3" style="0" width="8.66836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="1000" style="0" width="8.89285714285714"/>
+    <col min="1" max="1" width="28.5703125" style="4"/>
+    <col min="2" max="2" width="12.140625" style="15"/>
+    <col min="3" max="999" width="8.7109375"/>
+    <col min="1000" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1593,480 +2007,291 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="15">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="15">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="15">
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="19" t="n">
-        <v>0.338</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="19" t="n">
-        <v>8000</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.1</v>
       </c>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>0.14</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="15" t="n">
-        <v>0.016</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.25</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="15" t="n">
-        <v>0.001</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.45</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="15" t="n">
-        <v>0.1</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.8</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="15" t="n">
-        <v>0.07</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="15" t="n">
-        <v>500</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.01</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="19" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="19" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="19" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="19" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="19" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="19" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="19" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="19" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="19" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="21" t="n">
-        <v>1755.5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="21" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="21" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="21" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="21" t="n">
-        <v>1759.5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="21" t="n">
-        <v>1759.5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="22" t="n">
-        <v>1759.5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="22" t="n">
-        <v>1755.5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="21" t="n">
-        <v>1755.5</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="22" t="n">
-        <v>1759.5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="19" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="19" t="n">
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="19" t="n">
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="19" t="n">
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="19" t="n">
-        <v>1.085</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="19" t="n">
-        <v>1.085</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="19" t="n">
-        <v>1.085</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="19" t="n">
-        <v>1.085</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="19" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="19" t="n">
-        <v>1.069</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="19" t="n">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="19" t="n">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="19" t="n">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="19" t="n">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="19" t="n">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="19" t="n">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="19" t="n">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="19" t="n">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="19" t="n">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="19" t="n">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="15" t="n">
-        <v>0.01</v>
-      </c>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" s="19"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2074,77 +2299,346 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5561224489796"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>106</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>113</v>
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="One-by-one sensitivities and Tornado plots"/>
-    <hyperlink ref="C5" r:id="rId2" location="create-design-matrix-for-one-by-one-sensitivities" display="https://sdp.equinor.com/wikidocs/FMU/lib/fmu/tools/html/examples.html#create-design-matrix-for-one-by-one-sensitivities"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" location="create-design-matrix-for-one-by-one-sensitivities" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3F81C8E0C6D6E4B8B0E11E1FD2C3815" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="831350f1af26471ff20340f15875df59">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24e64fd7-dd82-45ab-bc56-7bee2b649a8c" xmlns:ns4="7518fa5f-d3e5-45ff-bc46-9421360fd0ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9136827b31234ee1bd7613b24a8ed12" ns3:_="" ns4:_="">
+    <xsd:import namespace="24e64fd7-dd82-45ab-bc56-7bee2b649a8c"/>
+    <xsd:import namespace="7518fa5f-d3e5-45ff-bc46-9421360fd0ce"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="24e64fd7-dd82-45ab-bc56-7bee2b649a8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7518fa5f-d3e5-45ff-bc46-9421360fd0ce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="02f74cf1-ae9f-400d-bc52-3bcd3a9e177f" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44DCED42-2DE3-41DF-9BF8-CBCF7C2AF5A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="24e64fd7-dd82-45ab-bc56-7bee2b649a8c"/>
+    <ds:schemaRef ds:uri="7518fa5f-d3e5-45ff-bc46-9421360fd0ce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3A5BD9-4F1C-44F9-BDEA-8C1F442B7137}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500F210C-5797-4401-A254-1609F5DB0E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDBEAEB-23AE-46E2-827B-BF6C7AC8C447}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7518fa5f-d3e5-45ff-bc46-9421360fd0ce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="24e64fd7-dd82-45ab-bc56-7bee2b649a8c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>